--- a/Output_testing/R1_201907/Country/HKD/MN/INDONESIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/INDONESIA_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>7752.544923</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>37.05394193296264</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>7998.77734</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>35.67607064444536</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>5394.652222</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>27.01380545526267</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>4651.343581</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>36.27143415980682</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>101.3015835549079</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>359.777378</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>1.719586304318607</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>633.102939</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>2.823759709377031</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>799.32645</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>4.002639711877564</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>608.526781</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>4.745325449980059</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>42.28850548286438</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>1218.963376</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>5.826138203818843</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>1330.245631</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>5.93314891623434</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>1338.105467</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>6.700584074122248</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>550.10157</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>4.289722427508062</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-33.06455529473791</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>744.467029</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>3.558242917333073</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>784.716958</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>3.499987115468608</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>783.080777</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>3.921289250003098</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>471.603832</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>3.677592730791778</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-7.626601732847805</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>621.616883</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>2.971070289305466</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>795.050884</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>3.546078393965237</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>624.828877</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>3.128840383310301</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>357.172674</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>2.785252240146898</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>25.4748301665553</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>410.055683</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>1.95989570109884</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>499.830639</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>2.229339863987546</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>536.339512</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>2.68572850276659</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>330.12947</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>2.574367841633955</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>11.18931053426424</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>1249.548573</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>5.97232273095186</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>1005.936122</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>4.48666672752656</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>920.1793280000001</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>4.607812390421474</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>327.264533</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.552026904664265</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-38.42671327136352</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>542.173559</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>2.591364225852123</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>587.489645</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>2.62031572914119</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>598.42765</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>2.99663582579504</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>266.791856</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.080457629233273</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-19.86977732515969</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>FERROUS WASTE AND SCRAP; REMELTING INGOTS OF IRON OR STEEL</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>312.474544</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>1.493498421989728</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>451.28714</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>2.01282661126928</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>487.581005</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>2.441569515646797</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>256.10478</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.997119220288752</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-5.105099902085552</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>424.713789</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>2.029955354279287</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>488.857719</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>2.180398550527276</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>519.825394</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>2.603033798352102</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>250.364281</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.952354492012504</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-14.18492050549304</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>7285.985934</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>34.82398391808953</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>7845.272034</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>34.99140773805757</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>7967.635818</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>39.89806109244212</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>4754.306784</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>37.07434690393363</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>11.19179429631134</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,433 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>FERROUS WASTE AND SCRAP; REMELTING INGOTS OF IRON OR STEEL</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>252.466523</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>52.30324272824457</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>277.657451</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>55.33605266910169</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>267.258785</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>51.63859597269133</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>184.618974</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>55.14914444911053</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>33.53990638990049</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>ESSENTIAL OILS, PERFUME AND FLAVOUR MATERIALS</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>54.63688</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>11.31906901000879</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>57.974744</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>11.55414153629786</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>57.452444</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>11.10071477485642</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>33.589108</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>10.03369550200606</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>1.745834035082194</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>15.927501</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>3.29968480952763</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>24.471082</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>4.876991694423883</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>32.726581</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>6.323289592993387</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>26.094183</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>7.794821065079283</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>410.7222341504297</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>19.006049</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>3.937464588728502</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>16.284428</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>3.245423316567846</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>16.332407</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>3.155677619108221</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>16.830323</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>5.027532621063029</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>67.76674550123613</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>26.435652</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>5.476648178164215</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>29.623759</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>5.903900228057539</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>26.9802</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>5.212998506531439</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>16.062506</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>4.798171306101532</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>0.723680167553975</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>5.531181</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>1.145889359821597</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>12.866441</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>2.564231769310197</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>25.178155</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>4.864815101897579</v>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>15.426511</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>4.608187690853447</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-18.46936886357116</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>17.150565</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>3.553065782593028</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>19.48055</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>3.882398030165122</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>24.394225</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>4.713347510136763</v>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>11.341727</v>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>3.387986224131963</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>0.1781203139743726</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>5.897568</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>1.221793396387559</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>3.457543</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0.6890749045797581</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>4.360928</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.8425998010055943</v>
+      </c>
+      <c r="I38" s="8" t="n">
+        <v>3.913385</v>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>1.169001376044818</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>14.96545500160695</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>1.615535</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>0.3346888064085019</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>3.216483</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>0.6410325818962812</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>5.487376</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>1.06024725142054</v>
+      </c>
+      <c r="I39" s="8" t="n">
+        <v>3.466821</v>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>1.035604347515277</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>1.111761827070423</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>PULP AND WASTE PAPER</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>4.181165</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>0.8662078650397569</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>5.193115</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>1.034967670133592</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>9.254476</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>1.788110153621213</v>
+      </c>
+      <c r="I40" s="8" t="n">
+        <v>3.318188</v>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>0.9912048873227146</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-42.21718455513497</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>79.84903</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>16.54224547507585</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>51.540319</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>10.27178559946624</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>48.130681</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>9.299603715737508</v>
+      </c>
+      <c r="I41" s="8" t="n">
+        <v>20.101353</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>6.004650530771346</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-26.98509001496777</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1726,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>7752.544923</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>37.92899964625386</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>7998.77734</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>36.49276842455861</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>5394.652222</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>27.7325417142687</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>4651.343581</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>37.2436808126136</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>101.3015835549079</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>359.777378</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>1.760195674894787</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>633.102939</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>2.888401309322413</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>799.32645</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>4.109134973991899</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>608.526781</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>4.872522702917313</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>42.28850548286438</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>1218.947869</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>5.963651130216469</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>1330.237433</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>6.068933354275403</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>1338.105467</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>6.878861538160614</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>550.10157</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>4.40470735623295</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-33.06455529473791</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>738.569461</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>3.613419993464888</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>781.259415</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>3.564334610056932</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>778.719849</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>4.003201653676781</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>467.690447</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>3.744834889929103</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-7.778242467231844</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>621.616883</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>3.04123442941479</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>795.050884</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>3.627255336945359</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>624.828877</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>3.212087115646908</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>357.172674</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>2.859910224603055</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>25.4748301665553</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>410.055683</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>2.006180165342769</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>499.636953</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>2.279490332978949</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>536.214755</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>2.756544342228382</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>330.12947</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>2.643373122927617</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>11.236050590047</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>1249.143894</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>6.111383911247563</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>1005.259386</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>4.586288181377476</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>919.331802</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>4.726052115879808</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>326.24641</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.612281150318461</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-38.61826833793109</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>525.022994</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>2.568652894176998</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>568.009095</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>2.591424099683478</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>574.033425</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>2.950960552985399</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>255.450129</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.045409654724229</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-20.57548298943173</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>424.713789</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>2.077894331827549</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>488.857719</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>2.23031230570858</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>519.825394</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>2.672290785391274</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>250.364281</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>2.004686862207417</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-14.18492050549304</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>438.446441</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>2.145080753579822</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>366.931258</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.674048027185861</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>357.832278</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.83952517566883</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>233.136168</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.866739980752211</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>14.97847269632389</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>6700.784707</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>32.78330706958049</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>7451.678714</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>33.99674401790695</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>7609.555723</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>39.11880003210141</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>4458.785552</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>35.70185324277405</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>9.14914051563953</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2184,433 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>COAL, WHETHER OR NOT PULVERIZED, BUT NOT AGGLOMERATED</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>3623.719382</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>20.36289186616286</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>4539.773812</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>23.44607571268138</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>5808.622179</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>29.4643552404713</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>2566.105334</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>25.17672027245796</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-27.7228937072971</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>3083.087695</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>17.32490149734842</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>2799.78877</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>14.45976434055325</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>2143.896537</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>10.8749591931385</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>1341.660902</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>13.16338062299809</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>6.364371798050339</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>315.030373</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>1.770261089150736</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>859.1834710000001</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>4.437331361950767</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>1694.5942</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>8.595863865574765</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>985.066231</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>9.664738473175809</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>3.007162820530795</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>2098.340137</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>11.79127542833568</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>1754.696875</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>9.062291974835379</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>1137.812834</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>5.771578957114229</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>766.768907</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>7.52296721002698</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>7.064914600141248</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>838.980003</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>4.714509397119203</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>1163.654619</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>6.009800362381007</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>969.150905</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>4.916037860024885</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>589.583041</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>5.78455104861339</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>4.233119983839018</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>1007.7505</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>5.662887297924757</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>1173.103802</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>6.05860152940289</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>1313.381583</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>6.66215504043451</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>530.500149</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>5.204873579780443</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-33.28771031398671</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>632.74851</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>3.555625623663611</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>690.195026</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>3.564575132209713</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>720.95123</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>3.657039913625741</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>408.87387</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>4.011566834499765</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>9.666623459708079</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>663.368146</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>3.727687605048369</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>683.2923469999999</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>3.528925617243452</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>544.807646</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>2.763547967967935</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>196.30104</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>1.925960056194865</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-44.7169916424813</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>403.393755</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>2.266804502951546</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>433.914391</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>2.240990429372527</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>330.742095</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>1.67769606625291</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>180.472387</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>1.770661065311428</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-8.685940824333994</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>346.761827</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>1.948570747941561</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>366.018706</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>1.890336974597638</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>328.612461</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>1.66689345407148</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>165.581415</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.624561904196866</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-15.04628119300046</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>4782.520822</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>26.87458494435326</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>4898.995054</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>25.301306564772</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>4721.493449</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>23.94987244132376</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>2461.4601</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>24.15001893274441</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-8.560027966886786</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
